--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cntn1</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cntn1</t>
-  </si>
-  <si>
-    <t>Notch1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>0.34355</v>
       </c>
       <c r="I2">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>7.6810194416</v>
+        <v>8.459360710283333</v>
       </c>
       <c r="R2">
-        <v>46.0861166496</v>
+        <v>50.7561642617</v>
       </c>
       <c r="S2">
-        <v>0.2301996446694077</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="T2">
-        <v>0.2194972871927796</v>
+        <v>0.4272874344759938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.34355</v>
       </c>
       <c r="I3">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
         <v>0.4831470381777778</v>
@@ -641,10 +641,10 @@
         <v>4.348323343600001</v>
       </c>
       <c r="S3">
-        <v>0.01447988478055895</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="T3">
-        <v>0.02071003692964703</v>
+        <v>0.0366060744105703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,10 +673,10 @@
         <v>0.34355</v>
       </c>
       <c r="I4">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>1.437171188111111</v>
+        <v>1.624866180594445</v>
       </c>
       <c r="R4">
-        <v>12.934540693</v>
+        <v>14.62379562535</v>
       </c>
       <c r="S4">
-        <v>0.04307192545829219</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="T4">
-        <v>0.06160416193849036</v>
+        <v>0.1231094627805071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>0.34355</v>
       </c>
       <c r="I5">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>3.637548912291667</v>
+        <v>2.308414656125001</v>
       </c>
       <c r="R5">
-        <v>21.82529347375</v>
+        <v>13.85048793675</v>
       </c>
       <c r="S5">
-        <v>0.1090171003268161</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="T5">
-        <v>0.1039487172698458</v>
+        <v>0.1165994228054851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.34355</v>
       </c>
       <c r="I6">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>5.130657159522223</v>
+        <v>2.893035504305556</v>
       </c>
       <c r="R6">
-        <v>46.17591443570001</v>
+        <v>26.03731953875</v>
       </c>
       <c r="S6">
-        <v>0.1537654557474397</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="T6">
-        <v>0.2199249728360446</v>
+        <v>0.2191934640486469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.34355</v>
       </c>
       <c r="I7">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>1.395556136822222</v>
+        <v>1.018982583933333</v>
       </c>
       <c r="R7">
-        <v>12.5600052314</v>
+        <v>9.170843255399999</v>
       </c>
       <c r="S7">
-        <v>0.04182472512343587</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="T7">
-        <v>0.05982033800722387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.0788065</v>
-      </c>
-      <c r="H8">
-        <v>0.157613</v>
-      </c>
-      <c r="I8">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J8">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>67.073376</v>
-      </c>
-      <c r="N8">
-        <v>134.146752</v>
-      </c>
-      <c r="O8">
-        <v>0.3886152607163267</v>
-      </c>
-      <c r="P8">
-        <v>0.3201976973989085</v>
-      </c>
-      <c r="Q8">
-        <v>5.285818005744</v>
-      </c>
-      <c r="R8">
-        <v>21.143272022976</v>
-      </c>
-      <c r="S8">
-        <v>0.1584156160469191</v>
-      </c>
-      <c r="T8">
-        <v>0.1007004102061289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.0788065</v>
-      </c>
-      <c r="H9">
-        <v>0.157613</v>
-      </c>
-      <c r="I9">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J9">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.219010666666667</v>
-      </c>
-      <c r="N9">
-        <v>12.657032</v>
-      </c>
-      <c r="O9">
-        <v>0.02444445215030819</v>
-      </c>
-      <c r="P9">
-        <v>0.03021133528677833</v>
-      </c>
-      <c r="Q9">
-        <v>0.3324854641026667</v>
-      </c>
-      <c r="R9">
-        <v>1.994912784616</v>
-      </c>
-      <c r="S9">
-        <v>0.009964567369749253</v>
-      </c>
-      <c r="T9">
-        <v>0.009501298357131299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.0788065</v>
-      </c>
-      <c r="H10">
-        <v>0.157613</v>
-      </c>
-      <c r="I10">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J10">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>12.54988666666667</v>
-      </c>
-      <c r="N10">
-        <v>37.64966</v>
-      </c>
-      <c r="O10">
-        <v>0.07271256897710082</v>
-      </c>
-      <c r="P10">
-        <v>0.0898667635266472</v>
-      </c>
-      <c r="Q10">
-        <v>0.9890126435966666</v>
-      </c>
-      <c r="R10">
-        <v>5.934075861579999</v>
-      </c>
-      <c r="S10">
-        <v>0.02964064351880864</v>
-      </c>
-      <c r="T10">
-        <v>0.02826260158815684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.0788065</v>
-      </c>
-      <c r="H11">
-        <v>0.157613</v>
-      </c>
-      <c r="I11">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J11">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>31.7643625</v>
-      </c>
-      <c r="N11">
-        <v>63.528725</v>
-      </c>
-      <c r="O11">
-        <v>0.1840389846252172</v>
-      </c>
-      <c r="P11">
-        <v>0.1516380468435678</v>
-      </c>
-      <c r="Q11">
-        <v>2.50323823335625</v>
-      </c>
-      <c r="R11">
-        <v>10.012952933425</v>
-      </c>
-      <c r="S11">
-        <v>0.07502188429840111</v>
-      </c>
-      <c r="T11">
-        <v>0.04768932957372202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.0788065</v>
-      </c>
-      <c r="H12">
-        <v>0.157613</v>
-      </c>
-      <c r="I12">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J12">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>44.80271133333334</v>
-      </c>
-      <c r="N12">
-        <v>134.408134</v>
-      </c>
-      <c r="O12">
-        <v>0.2595816460111038</v>
-      </c>
-      <c r="P12">
-        <v>0.3208215955797718</v>
-      </c>
-      <c r="Q12">
-        <v>3.530744870690334</v>
-      </c>
-      <c r="R12">
-        <v>21.184469224142</v>
-      </c>
-      <c r="S12">
-        <v>0.1058161902636641</v>
-      </c>
-      <c r="T12">
-        <v>0.1008966227437272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.0788065</v>
-      </c>
-      <c r="H13">
-        <v>0.157613</v>
-      </c>
-      <c r="I13">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J13">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.18648933333333</v>
-      </c>
-      <c r="N13">
-        <v>36.559468</v>
-      </c>
-      <c r="O13">
-        <v>0.07060708751994335</v>
-      </c>
-      <c r="P13">
-        <v>0.08726456136432641</v>
-      </c>
-      <c r="Q13">
-        <v>0.9603745716473333</v>
-      </c>
-      <c r="R13">
-        <v>5.762247429883999</v>
-      </c>
-      <c r="S13">
-        <v>0.02878236239650749</v>
-      </c>
-      <c r="T13">
-        <v>0.02744422335710254</v>
+        <v>0.0772041414787968</v>
       </c>
     </row>
   </sheetData>
